--- a/保险工作对接流程.xlsx
+++ b/保险工作对接流程.xlsx
@@ -19,30 +19,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>燃气意外险销售管理流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：微机员发送给增值业务部当天的用户保险信息登记表最后一栏需备注保险销售人员姓名。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：直销员送气时需从微机员处领取“燃气意外险卡单”并登记。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>注：直销员需随身携带《用户保险信息登记表》。对于已支付保费用户发放对应购买金额的卡单，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>刮开对应卡单密码区，登记卡号、密码、身份证号、住址、电话等信息。</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -80,6 +56,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>用户购买液化气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微机员售气同时卖出保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微机员登录管理用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店每月将售出保险汇总报市场部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场部在月底前将各店保险汇总并核算保费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场部将保险汇总表及保费交给增值业务部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增值业务部将保险核算后将保费交到保险公司，并将提成表发送到市场部。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增值再将保险公司返回的提成分配给各个部门。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：每个门店做报表时附上保险销售表。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：在销售液化气的同进将保险加入到气款中，并打印相应的单据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>微机员职责</t>
     </r>
@@ -91,7 +107,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">：１、保单打印管理登记；
-　　　　　　２、参保用户信息的汇总并在每天下午四点之前传送市场部。
+　　　　　　２、店长每月月底前将保险销售数据传送到市场部。
 </t>
     </r>
     <r>
@@ -114,34 +130,6 @@
       <t>１、保险销售并登记被保险人数量；
 　　　　　　２、月底前将保险信息登记表和保费交增值业务部。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户购买液化气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微机员售气同时卖出保险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微机员登录管理用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门店每月将售出保险汇总报市场部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场部在月底前将各店保险汇总并核算保费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场部将保险汇总表及保费交给增值业务部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增值业务部将保险核算后将保费交到保险公司，并将提成表发送到市场部。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,6 +313,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -337,9 +349,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -348,27 +357,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,8 +783,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -809,29 +797,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="60" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="A2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1"/>
     <row r="4" spans="1:5" ht="23.25" customHeight="1">
-      <c r="B4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="23"/>
+      <c r="B4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="22.5" customHeight="1">
       <c r="B5" s="2"/>
@@ -840,63 +828,63 @@
     <row r="6" spans="1:5" ht="22.5" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
-      <c r="E6" s="18" t="s">
-        <v>2</v>
+      <c r="E6" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="42.75" customHeight="1">
-      <c r="B7" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="E7" s="19"/>
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="36.75" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="36.75" customHeight="1">
-      <c r="B9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="14"/>
+      <c r="B9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:5" ht="36.75" customHeight="1">
       <c r="B10" s="9"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="36.75" customHeight="1">
-      <c r="B11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="14"/>
+      <c r="B11" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:5" ht="36" customHeight="1">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
-      <c r="E12" s="12" t="s">
-        <v>3</v>
+      <c r="E12" s="20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="63.75" customHeight="1">
-      <c r="B13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="E13" s="12"/>
+      <c r="B13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" ht="34.5" customHeight="1">
       <c r="B14" s="4"/>
-      <c r="E14" s="12"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:5" ht="43.5" customHeight="1">
       <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="41.25" customHeight="1">
-      <c r="B16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="12"/>
+      <c r="B16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="20"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="4"/>
@@ -904,28 +892,28 @@
     <row r="18" spans="2:5" ht="35.25" customHeight="1">
       <c r="B18" s="7"/>
       <c r="C18" s="6"/>
-      <c r="E18" s="18" t="s">
-        <v>1</v>
+      <c r="E18" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="75.75" customHeight="1">
-      <c r="B19" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="E19" s="19"/>
+      <c r="B19" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:5" ht="12.75" customHeight="1">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
     </row>
     <row r="21" spans="2:5" ht="65.25" customHeight="1">
-      <c r="B21" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="B21" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="2:5" ht="16.5" customHeight="1">
       <c r="B22" s="3"/>
@@ -934,10 +922,10 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="2:5" ht="60.75" customHeight="1">
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" spans="2:5" ht="27.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -957,6 +945,10 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="E18:E19"/>
@@ -967,10 +959,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.3" right="0.23" top="0.21" bottom="0.15" header="0.18" footer="0.15"/>
